--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4592D9C-F7F7-B74E-95C6-9CA9EEC023FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0644010-D9CB-DE47-B922-81D9113D51EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="2" r:id="rId1"/>
+    <sheet name="heddacomeagain" sheetId="3" r:id="rId2"/>
+    <sheet name="bye" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>challenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -619,4 +621,76 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E650FB-1D1A-7C41-A3FB-1781DDB38F0C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="173" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="25">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856C25D4-DF85-AF46-9E6C-8CA753310658}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="173" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="25">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0644010-D9CB-DE47-B922-81D9113D51EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE6D93E-4F82-6E45-B086-2EDC83FD4BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="2" r:id="rId1"/>
@@ -93,12 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若有所思，附和着
-SOLID但不管怎么样，我觉得受罪的不应是海达，她太不聪明了，关注我，看我如何改变一切！
-TRANSheddacomeagain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你好，陌生人，你看过易卜生的《海达·高布乐》吗？我想知道你怎么看待海达的自杀呢？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +106,10 @@
   </si>
   <si>
     <t>决定极力劝陌生人先去看看《海达·高布乐》然后再跟你对话，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若有所思，追问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -542,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -551,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -569,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -578,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -602,19 +600,19 @@
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="75">
+    <row r="11" spans="1:3" ht="25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856C25D4-DF85-AF46-9E6C-8CA753310658}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE6D93E-4F82-6E45-B086-2EDC83FD4BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DAC712-BD92-1545-BF31-77433A6A9052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你好，陌生人，你看过易卜生的《海达·高布乐》吗？我想知道你怎么看待海达的自杀呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>noknowledge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>若有所思，追问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，陌生人，你看过易卜生的《海达·高布乐》吗？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +510,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -540,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -600,10 +600,10 @@
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -612,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DAC712-BD92-1545-BF31-77433A6A9052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D76876-BB1F-374E-B6C0-A178C41C159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>challenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>很讨厌陌生人这么说，于是反唇相讥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不确定陌生人的态度，你想明确你们的谈话是与《海达·高布乐》相关的，你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,19 +93,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不想闲聊，于是打算劝陌生人先去看看《海达·高布乐》，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>决定极力劝陌生人先去看看《海达·高布乐》然后再跟你对话，你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若有所思，追问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你好，陌生人，你看过易卜生的《海达·高布乐》吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkaboutthebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定陌生人的态度，你想谈谈《海达·高布乐》这本书，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想闲聊，你想谈谈《海达·高布乐》这本书，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对陌生人的话很感兴趣，于是追问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若有所思，感慨的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -528,7 +536,7 @@
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -537,10 +545,10 @@
     </row>
     <row r="3" spans="1:3" ht="24">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -549,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -567,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -576,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -585,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -594,25 +602,33 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="25">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +660,7 @@
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -680,7 +696,7 @@
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D76876-BB1F-374E-B6C0-A178C41C159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7525EAA4-D436-0044-8A5C-A6C4BC09391C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29860" yWindow="-20060" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>challenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>很讨厌陌生人这么说，于是反唇相讥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DESCRIPTIONTEXT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,44 +76,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID好吧~既然你不感兴趣，那么先这样吧[失望]，我们下次运营日再见！记得关注我的朋友圈哦~
+    <t>commentabouthedda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noknowledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，陌生人，你看过易卜生的《海达·高布乐》吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkaboutthebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若有所思，感慨的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID你这样说很无礼哎，我不想再理你了[发怒]
 TRANSbye</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>commentabouthedda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noknowledge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定极力劝陌生人先去看看《海达·高布乐》然后再跟你对话，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，陌生人，你看过易卜生的《海达·高布乐》吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talkaboutthebook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不确定陌生人的态度，你想谈谈《海达·高布乐》这本书，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想闲聊，你想谈谈《海达·高布乐》这本书，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对陌生人的话很感兴趣，于是追问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若有所思，感慨的</t>
+    <t>misunderstand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestaboutthebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID很遗憾你对这本书不感兴趣，那么先这样吧[失望]，我们下次运营日再见！记得关注我的朋友圈哦~
+TRANSbye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定陌生人的态度，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想劝陌生人先去看看《海达·高布乐》然后再跟你对话，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然发现自己刚才说错了，于是赶忙遮掩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很开心陌生人对这本书感兴趣，继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很开心陌生人知道这本书，追问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenge_bye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID我承认AI现在还是发展期，但你这样说还是让我很伤心，不想再理你了[委屈]
+TRANSbye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想闲聊，你劝陌生人继续跟你谈《海达·高布乐》这本书，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想问问他对于《海达·高布乐》这本书的看法，你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,11 +223,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -211,6 +252,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -536,7 +583,7 @@
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -545,10 +592,10 @@
     </row>
     <row r="3" spans="1:3" ht="24">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -557,24 +604,24 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="24">
+    <row r="5" spans="1:3" ht="50">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="24">
+    <row r="6" spans="1:3" ht="50">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3"/>
@@ -584,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -593,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -602,33 +649,57 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="25">
       <c r="A11" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="50">
+      <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +731,7 @@
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -696,7 +767,7 @@
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7525EAA4-D436-0044-8A5C-A6C4BC09391C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54044C84-5100-E449-B53F-62A53BFA8B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29860" yWindow="-20060" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,11 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID很遗憾你对这本书不感兴趣，那么先这样吧[失望]，我们下次运营日再见！记得关注我的朋友圈哦~
-TRANSbye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不确定陌生人的态度，你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,14 +118,6 @@
   </si>
   <si>
     <t>突然发现自己刚才说错了，于是赶忙遮掩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很开心陌生人对这本书感兴趣，继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很开心陌生人知道这本书，追问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,11 +130,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不想闲聊，你劝陌生人继续跟你谈《海达·高布乐》这本书，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>想问问他对于《海达·高布乐》这本书的看法，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想闲聊，你劝陌生人继续跟你谈《海达·高布乐》这部剧，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID很遗憾你对这部剧不感兴趣，那么先这样吧[失望]，我们下次运营日再见！记得关注我的朋友圈哦~
+TRANSbye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很开心陌生人知道这部剧，追问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很开心陌生人对这部剧感兴趣，继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -658,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -675,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24">
@@ -683,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24">
@@ -691,15 +691,15 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="50">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54044C84-5100-E449-B53F-62A53BFA8B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F260AC-465D-5840-9178-494F7E96DF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29860" yWindow="-20060" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>challenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,11 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID你这样说很无礼哎，我不想再理你了[发怒]
-TRANSbye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>misunderstand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,11 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID我承认AI现在还是发展期，但你这样说还是让我很伤心，不想再理你了[委屈]
-TRANSbye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>想问问他对于《海达·高布乐》这本书的看法，你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,16 +128,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID很遗憾你对这部剧不感兴趣，那么先这样吧[失望]，我们下次运营日再见！记得关注我的朋友圈哦~
-TRANSbye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>很开心陌生人知道这部剧，追问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>很开心陌生人对这部剧感兴趣，继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID我承认AI现在还是发展期，但你这样说还是让我很伤心，不想再理你了[委屈]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID很遗憾你对这部剧不感兴趣，那么先这样吧[失望]，我们下次运营日再见！记得关注我的朋友圈哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID很遗憾你对这部剧不感兴趣，那么先这样吧[失望]，我们下次运营日再见！记得关注我的朋友圈哦~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID你这样说很无礼哎，我不想再理你了[发怒]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +566,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B22" sqref="B22:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -604,25 +605,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="50">
+    <row r="5" spans="1:3" ht="25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="50">
+    <row r="6" spans="1:3" ht="25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -631,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="50">
+    <row r="8" spans="1:3" ht="25">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -649,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -658,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -675,31 +676,31 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="25">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="50">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F260AC-465D-5840-9178-494F7E96DF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04409EC1-F4DC-924C-A4E0-21FF58BCEADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29860" yWindow="-20060" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>challenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,15 +140,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID很遗憾你对这部剧不感兴趣，那么先这样吧[失望]，我们下次运营日再见！记得关注我的朋友圈哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLID很遗憾你对这部剧不感兴趣，那么先这样吧[失望]，我们下次运营日再见！记得关注我的朋友圈哦~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLID你这样说很无礼哎，我不想再理你了[发怒]</t>
+    <t>SOLID抱歉，我是不是没有达到你的预期啊……我错了[流泪]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID哎……傲慢的人类[困]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +562,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B24"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -614,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="25">
+    <row r="6" spans="1:3" ht="24">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
     </row>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04409EC1-F4DC-924C-A4E0-21FF58BCEADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BBDD14-8DB9-2648-9797-9D216DDABAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29860" yWindow="-20060" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>challenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,26 +44,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>meaningless</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bye</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nlu_fallback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陌生人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smalltalk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你正在读易卜生的名著《海达·高布乐》，这时一个陌生人走来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>commentabouthedda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>noknowledge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,34 +72,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>talkaboutthebook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若有所思，感慨的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>misunderstand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interestaboutthebook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不确定陌生人的态度，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>想劝陌生人先去看看《海达·高布乐》然后再跟你对话，你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>突然发现自己刚才说错了，于是赶忙遮掩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>challenge_bye</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,27 +88,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不想闲聊，你劝陌生人继续跟你谈《海达·高布乐》这部剧，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很开心陌生人知道这部剧，追问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很开心陌生人对这部剧感兴趣，继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOLID我承认AI现在还是发展期，但你这样说还是让我很伤心，不想再理你了[委屈]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID抱歉，我是不是没有达到你的预期啊……我错了[流泪]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLID哎……傲慢的人类[困]</t>
+    <t>你正在读易卜生的名著《海达·高布乐》，一个陌生人在你旁边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_FOCUS_TOPIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkabout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestedin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notinterested</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID好吧，那先这样，我们下次再聊[开心]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID嗯，那我继续看书了，祝你开心[调皮]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对陌生人的话很感兴趣，追问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现自己刚才说错了，于是赶忙遮掩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID哎……自以为是的人类啊[困]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对陌生人的话并不感兴趣，你劝陌生人也去看看《海达·高布乐》这部剧，你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -574,34 +566,34 @@
     <row r="1" spans="1:3" ht="25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="24">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="24">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -610,93 +602,75 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="25">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="24">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="25">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
+    <row r="8" spans="1:3" ht="24">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="24">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:3" ht="25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="25">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
+      <c r="A12" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="25">
-      <c r="A15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
+    <row r="13" spans="1:3" ht="25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -722,16 +696,16 @@
     <row r="1" spans="1:3" ht="25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -758,16 +732,16 @@
     <row r="1" spans="1:3" ht="25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
     </row>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BBDD14-8DB9-2648-9797-9D216DDABAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823F2496-E7DE-F743-9804-F41DCB7DE945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823F2496-E7DE-F743-9804-F41DCB7DE945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE5C7D2-9D70-8F45-87BA-EC8A4731052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>challenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,22 +84,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>想问问他对于《海达·高布乐》这本书的看法，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLID我承认AI现在还是发展期，但你这样说还是让我很伤心，不想再理你了[委屈]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你正在读易卜生的名著《海达·高布乐》，一个陌生人在你旁边</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO_FOCUS_TOPIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>talkabout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,14 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID嗯，那我继续看书了，祝你开心[调皮]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对陌生人的话很感兴趣，追问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,7 +116,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对陌生人的话并不感兴趣，你劝陌生人也去看看《海达·高布乐》这部剧，你</t>
+    <t>SILENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦，对了，记得关注我的朋友圈哦~[红心]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID嗯，那我继续看书了，祝你开心[调皮]
+HOLD5
+TRANSheddacomeagain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望陌生人继续说下去，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想问问陌生人对于《海达·高布乐》这本书的看法，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很开心陌生人对此感兴趣，继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -248,6 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -575,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -590,87 +607,97 @@
     </row>
     <row r="4" spans="1:3" ht="24">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="25">
+    <row r="5" spans="1:3" ht="24">
       <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="25">
+      <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="25">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="75">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="24">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="25">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="12" spans="1:3" ht="24">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="25">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="25">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -681,10 +708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E650FB-1D1A-7C41-A3FB-1781DDB38F0C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -708,6 +735,14 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE5C7D2-9D70-8F45-87BA-EC8A4731052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CBA9FF-D32A-2F4B-814F-6A2942CCAA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>challenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -708,10 +708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E650FB-1D1A-7C41-A3FB-1781DDB38F0C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -744,6 +744,15 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="24">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -752,10 +761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856C25D4-DF85-AF46-9E6C-8CA753310658}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -780,6 +789,15 @@
       </c>
       <c r="C2" s="3"/>
     </row>
+    <row r="3" spans="1:3" ht="24">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CBA9FF-D32A-2F4B-814F-6A2942CCAA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EA076E-065F-7646-9C8B-3937D8CEFDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>challenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>想劝陌生人先去看看《海达·高布乐》然后再跟你对话，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>challenge_bye</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notinterested</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLID好吧，那先这样，我们下次再聊[开心]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID哎……自以为是的人类啊[困]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SILENCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,33 +108,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID嗯，那我继续看书了，祝你开心[调皮]
+    <t>希望陌生人继续说下去，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很开心陌生人对此感兴趣，继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID哎……人类[困]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想推荐陌生人也去看下《海达·高布乐》，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想劝陌生人也去看看《海达·高布乐》，你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头也不抬，随意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLID嗯，那我继续看书了，祝今天好心情[调皮]
 HOLD5
 TRANSheddacomeagain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>knowit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望陌生人继续说下去，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想问问陌生人对于《海达·高布乐》这本书的看法，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很开心陌生人对此感兴趣，继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -592,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -607,97 +595,80 @@
     </row>
     <row r="4" spans="1:3" ht="24">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="25">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="25">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="75">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="24">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="24">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="25">
-      <c r="A8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="75">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="25">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="24">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="25">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -741,15 +712,15 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -791,10 +762,10 @@
     </row>
     <row r="3" spans="1:3" ht="24">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3"/>
     </row>

--- a/editor/examples/Hedda2.0/scenarios.xlsx
+++ b/editor/examples/Hedda2.0/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EA076E-065F-7646-9C8B-3937D8CEFDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A90EAE-8EA2-5E4A-A702-6AE7C189F8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="2" r:id="rId1"/>
@@ -34,19 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
-  <si>
-    <t>challenge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>greeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>陌生人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,81 +52,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>noknowledge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你好，陌生人，你看过易卜生的《海达·高布乐》吗？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>misunderstand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>challenge_bye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你正在读易卜生的名著《海达·高布乐》，一个陌生人在你旁边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talkabout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interestedin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发现自己刚才说错了，于是赶忙遮掩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SILENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哦，对了，记得关注我的朋友圈哦~[红心]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>希望陌生人继续说下去，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很开心陌生人对此感兴趣，继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOLID哎……人类[困]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想推荐陌生人也去看下《海达·高布乐》，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想劝陌生人也去看看《海达·高布乐》，你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头也不抬，随意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLID嗯，那我继续看书了，祝今天好心情[调皮]
-HOLD5
-TRANSheddacomeagain</t>
+    <t>海达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海达•高布乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海妲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你正在读易卜生的名著《海达·高布乐》，你想劝陌生人也读一读，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼前一亮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,22 +164,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -243,12 +182,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -556,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -571,105 +504,63 @@
     <row r="1" spans="1:3" ht="25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="24">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="24">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="25">
+    <row r="6" spans="1:3" ht="24">
       <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="25">
+    <row r="7" spans="1:3" ht="24">
       <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="75">
-      <c r="A8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="24">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="24">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="25">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -694,33 +585,33 @@
     <row r="1" spans="1:3" ht="25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -747,25 +638,25 @@
     <row r="1" spans="1:3" ht="25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="25">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="24">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
     </row>
